--- a/data/long_dif/P24_4-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_4-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18,9%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,15</t>
+          <t>3,89; 9,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,55; 14,03</t>
+          <t>7,04; 13,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,46</t>
+          <t>6,34; 12,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,09; 14,63</t>
+          <t>5,76; 12,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,91; 15,76</t>
+          <t>9,27; 18,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,45; 16,78</t>
+          <t>9,22; 15,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 11,01</t>
+          <t>9,56; 15,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,3; 13,78</t>
+          <t>11,78; 17,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 13,29</t>
+          <t>10,44; 17,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,39; 23,8</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 11,22</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9,56; 13,64</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9,98; 14,0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>8,59; 13,41</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>13,25; 19,45</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,59%</t>
+          <t>82,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>80,12%</t>
+          <t>79,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>81,18%</t>
+          <t>81,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>74,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>70,01%</t>
+          <t>73,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>77,81%</t>
+          <t>70,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>75,33%</t>
+          <t>69,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>75,32%</t>
+          <t>62,14%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>55,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>77,72%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>74,86%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>74,89%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>68,1%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>62,35%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,0; 86,18</t>
+          <t>78,13; 86,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,04; 84,12</t>
+          <t>74,94; 83,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,59; 85,18</t>
+          <t>76,17; 84,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,53; 77,28</t>
+          <t>68,36; 80,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>66,42; 74,79</t>
+          <t>62,51; 75,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,18; 73,35</t>
+          <t>68,92; 76,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,8; 80,69</t>
+          <t>67,07; 74,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,42; 78,66</t>
+          <t>65,53; 73,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>72,05; 78,14</t>
+          <t>57,39; 67,11</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>50,26; 60,31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>74,75; 80,34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>71,5; 77,64</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>71,77; 77,47</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>64,56; 72,21</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>58,49; 66,24</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25,58%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13,29%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,76%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13,33%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>21,58%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,7; 15,42</t>
+          <t>8,12; 15,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 12,88</t>
+          <t>7,76; 15,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 16,0</t>
+          <t>7,25; 14,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 18,29</t>
+          <t>12,52; 22,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,39; 20,07</t>
+          <t>12,57; 24,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,64; 18,86</t>
+          <t>12,13; 18,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 16,09</t>
+          <t>13,18; 19,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,08; 15,6</t>
+          <t>13,53; 19,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 16,35</t>
+          <t>20,27; 29,33</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21,54; 30,12</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11,26; 15,77</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11,4; 16,49</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11,21; 15,77</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>17,69; 24,46</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>18,46; 24,94</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 13,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 14,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 15,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 19,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 17,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 15,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 14,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>86,86%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>76,42%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>72,53%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>70,56%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>69,79%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>79,64%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>73,49%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>14,78%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12,05%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>12,51%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>13,62%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>13,28%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>83,2; 90,09</t>
+          <t>3,09; 7,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>66,67; 82,07</t>
+          <t>5,53; 13,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,87; 82,34</t>
+          <t>7,92; 14,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67,76; 77,35</t>
+          <t>8,73; 17,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>65,51; 75,55</t>
+          <t>6,36; 18,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,31; 73,8</t>
+          <t>8,96; 15,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,35; 82,71</t>
+          <t>11,31; 20,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,22; 77,5</t>
+          <t>11,39; 18,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,01; 77,24</t>
+          <t>11,23; 19,18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,15; 23,76</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6,66; 10,74</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9,51; 15,48</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 14,93</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>10,9; 16,87</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>9,02; 18,6</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>86,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>77,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>77,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>67,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>75,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>71,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>69,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>69,28%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>63,22%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>50,63%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>78,68%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>73,49%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>73,65%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>65,54%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>63,63%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,74; 11,79</t>
+          <t>82,05; 89,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 24,43</t>
+          <t>68,97; 82,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,02; 14,77</t>
+          <t>73,55; 82,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,87; 19,41</t>
+          <t>59,9; 73,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,38; 18,52</t>
+          <t>65,62; 84,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,97; 20,1</t>
+          <t>66,37; 76,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,82; 14,97</t>
+          <t>64,72; 74,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,8; 19,93</t>
+          <t>64,21; 73,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,13; 15,89</t>
+          <t>58,14; 68,56</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>40,39; 60,96</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>75,3; 81,51</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>68,97; 77,09</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>70,1; 76,62</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>60,55; 69,75</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>56,01; 71,47</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>34,43%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14,47%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>20,84%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>23,09%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 10,91</t>
+          <t>6,29; 12,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,02</t>
+          <t>9,92; 22,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,85; 20,87</t>
+          <t>8,07; 15,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,35; 22,36</t>
+          <t>14,6; 28,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,16; 16,45</t>
+          <t>7,1; 21,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,05; 24,55</t>
+          <t>12,68; 21,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,32; 14,5</t>
+          <t>11,44; 18,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 11,14</t>
+          <t>13,12; 20,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,22; 20,25</t>
+          <t>18,15; 27,21</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25,08; 44,92</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 15,83</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>11,64; 18,59</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>11,58; 16,81</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>17,37; 24,94</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 29,99</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>84,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>81,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>70,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>74,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>64,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>80,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>73,4%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>81,95; 94,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>73,77; 92,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73,37; 88,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>60,58; 78,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>64,82; 82,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>56,05; 72,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>73,86; 85,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72,65; 85,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>67,19; 78,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>14,66%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,93; 11,65</t>
+          <t>1,24; 11,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,83; 22,4</t>
+          <t>1,14; 10,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,61; 12,04</t>
+          <t>7,29; 21,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,62; 24,2</t>
+          <t>1,1; 12,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,41; 25,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,98; 26,27</t>
+          <t>7,7; 20,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,74; 15,52</t>
+          <t>4,1; 16,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,86; 20,16</t>
+          <t>10,95; 24,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,66; 17,02</t>
+          <t>7,2; 21,01</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5,4; 13,49</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 11,46</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 20,35</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>5,42; 14,68</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>86,02%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>81,04%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>81,46%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>71,57%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>74,1%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>64,46%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>65,15%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>79,98%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>80,15%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>72,86%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>73,28%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,11</t>
+          <t>79,95; 94,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,06; 11,5</t>
+          <t>76,82; 92,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>7,87; 12,02</t>
+          <t>72,51; 88,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,93; 14,21</t>
+          <t>68,84; 91,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,57; 16,37</t>
+          <t>63,31; 79,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,42; 10,07</t>
+          <t>65,39; 82,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,49; 12,67</t>
+          <t>55,99; 72,59</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,81; 13,63</t>
+          <t>54,48; 74,49</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>73,86; 85,36</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>73,21; 86,15</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>66,4; 78,81</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>64,51; 80,46</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>85,22%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>79,22%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>80,16%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>71,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>69,32%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>78,85%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>75,14%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>74,62%</t>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>13,23%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>12,48%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>17,67%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>82,56; 87,72</t>
+          <t>2,97; 14,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>75,19; 82,49</t>
+          <t>4,25; 18,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>77,08; 82,84</t>
+          <t>3,08; 12,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>69,86; 75,64</t>
+          <t>5,71; 27,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>67,95; 74,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>66,69; 71,77</t>
+          <t>9,32; 23,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>76,84; 81,03</t>
+          <t>10,53; 25,19</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>72,33; 77,14</t>
+          <t>12,38; 25,87</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>72,76; 76,61</t>
+          <t>14,65; 32,57</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 16,45</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>8,58; 19,3</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>8,9; 17,53</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>12,01; 26,38</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,765 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,58; 11,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,39; 16,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8,05; 13,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>12,79; 17,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>13,72; 18,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>14,22; 18,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,92; 14,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>12,23; 16,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>11,83; 15,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>14,62%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>18,06%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>12,41%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>15,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 7,37</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 11,51</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 12,38</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>7,01; 12,55</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>9,75; 16,85</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 14,4</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>11,25; 16,17</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>12,73; 17,0</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>11,71; 16,22</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>14,8; 22,19</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>7,41; 10,26</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>9,51; 12,94</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 13,77</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 13,53</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>13,03; 18,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>84,69%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>79,19%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>79,84%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>72,73%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>70,8%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>72,33%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>70,89%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>68,73%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>62,9%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>54,48%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>78,37%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>74,94%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>74,16%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>67,7%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>62,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>82,06; 87,21</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>75,57; 82,62</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>76,51; 82,6</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>67,89; 76,71</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>64,96; 75,71</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>69,43; 74,94</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>68,0; 73,71</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>65,96; 71,38</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>59,57; 66,5</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>50,26; 59,37</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>76,05; 80,21</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>72,25; 77,07</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>72,17; 76,16</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>65,13; 70,38</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>59,0; 65,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>17,68%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>16,38%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>23,24%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>27,46%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>12,84%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>13,98%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>20,53%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>21,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 12,31</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>9,1; 15,45</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 12,69</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>14,44; 21,85</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>12,94; 22,0</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 18,06</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>13,52; 18,17</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 19,04</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>20,16; 26,23</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>23,42; 31,68</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>11,31; 14,71</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>12,28; 16,28</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>11,87; 15,07</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>18,34; 23,15</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>19,15; 25,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_4-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_4-Urba-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1783,7 +1783,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1924,7 +1924,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2228,7 +2228,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2387,7 +2387,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
